--- a/Crawling/music/crawled_data/outlier_data/2022-05-02_2022-05-08/bugs/[bugs]20220502_20220508_mean_outliers.xlsx
+++ b/Crawling/music/crawled_data/outlier_data/2022-05-02_2022-05-08/bugs/[bugs]20220502_20220508_mean_outliers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
   <si>
     <t>날짜</t>
   </si>
@@ -55,97 +55,58 @@
     <t>나의 월요일</t>
   </si>
   <si>
-    <t>마지막 너의 인사</t>
-  </si>
-  <si>
     <t>리무진 (Feat. MINO) (Prod. GRAY)</t>
   </si>
   <si>
+    <t>Light Switch</t>
+  </si>
+  <si>
     <t>LOVE</t>
   </si>
   <si>
-    <t>Step Back</t>
-  </si>
-  <si>
     <t>꽃 길</t>
   </si>
   <si>
-    <t>모든 날, 모든 순간 (Every day, Every Moment)</t>
-  </si>
-  <si>
-    <t>사랑인가 봐 (Acoustic Ver.)</t>
-  </si>
-  <si>
-    <t>무지개</t>
-  </si>
-  <si>
     <t>아버지</t>
   </si>
   <si>
     <t>사랑해 진짜</t>
   </si>
   <si>
-    <t>언제나 사랑해</t>
-  </si>
-  <si>
-    <t>Bad Habits</t>
+    <t>문득</t>
   </si>
   <si>
     <t>싸이 (PSY)</t>
   </si>
   <si>
-    <t>헤이즈(Heize)</t>
-  </si>
-  <si>
     <t>BE'O (비오)</t>
   </si>
   <si>
+    <t>Charlie Puth(찰리 푸스)</t>
+  </si>
+  <si>
     <t>몬스타엑스(Monsta X)</t>
   </si>
   <si>
-    <t>GOT the beat</t>
-  </si>
-  <si>
     <t>BIGBANG (빅뱅)</t>
   </si>
   <si>
-    <t>폴킴(Paul Kim)</t>
-  </si>
-  <si>
-    <t>김세정</t>
-  </si>
-  <si>
     <t>임영웅</t>
   </si>
   <si>
-    <t>케이시</t>
-  </si>
-  <si>
-    <t>Ed Sheeran(에드 시런)</t>
-  </si>
-  <si>
     <t>싸다9</t>
   </si>
   <si>
-    <t>우리들의 블루스 OST Part 2</t>
-  </si>
-  <si>
     <t>쇼미더머니 10 Episode 3</t>
   </si>
   <si>
     <t>SHAPE of LOVE</t>
   </si>
   <si>
-    <t>'키스 먼저 할까요?' OST Part.3</t>
-  </si>
-  <si>
-    <t>사랑인가 봐 (사내맞선 OST Bonus Track)</t>
-  </si>
-  <si>
     <t>IM HERO</t>
   </si>
   <si>
-    <t>조영수 리메이크 프로젝트 Part.2</t>
+    <t>Bipolar</t>
   </si>
   <si>
     <t>P NATION</t>
@@ -154,28 +115,16 @@
     <t>스윙</t>
   </si>
   <si>
+    <t>해외</t>
+  </si>
+  <si>
     <t>스타쉽</t>
   </si>
   <si>
-    <t>SM</t>
-  </si>
-  <si>
     <t>YG</t>
   </si>
   <si>
-    <t>neuron music</t>
-  </si>
-  <si>
-    <t>Jellyfish</t>
-  </si>
-  <si>
     <t>물고기뮤직</t>
-  </si>
-  <si>
-    <t>NEXTAR</t>
-  </si>
-  <si>
-    <t>해외</t>
   </si>
   <si>
     <t>기타</t>
@@ -536,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -588,16 +537,16 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -614,28 +563,28 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -646,28 +595,28 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -684,16 +633,16 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
         <v>28</v>
       </c>
-      <c r="F5" t="s">
-        <v>39</v>
-      </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -710,28 +659,28 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>27</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -741,29 +690,23 @@
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7">
-        <v>82</v>
-      </c>
       <c r="D7" t="s">
         <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="J7">
-        <v>30.5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -773,29 +716,23 @@
       <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C8">
-        <v>86</v>
-      </c>
       <c r="D8" t="s">
         <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="H8" t="s">
-        <v>54</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="J8">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -805,159 +742,23 @@
       <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="C9">
-        <v>94</v>
-      </c>
       <c r="D9" t="s">
         <v>19</v>
       </c>
       <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" t="s">
         <v>32</v>
       </c>
-      <c r="F9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" t="s">
-        <v>50</v>
-      </c>
       <c r="H9" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="J9">
-        <v>23.66666666666667</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J10">
-        <v>27.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" t="s">
-        <v>51</v>
-      </c>
-      <c r="H11" t="s">
-        <v>54</v>
-      </c>
-      <c r="J11">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" t="s">
-        <v>51</v>
-      </c>
-      <c r="H12" t="s">
-        <v>54</v>
-      </c>
-      <c r="J12">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13" t="s">
-        <v>54</v>
-      </c>
-      <c r="J13">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14" t="s">
-        <v>54</v>
-      </c>
-      <c r="J14">
-        <v>25.33333333333333</v>
+        <v>35.5</v>
       </c>
     </row>
   </sheetData>

--- a/Crawling/music/crawled_data/outlier_data/2022-05-02_2022-05-08/bugs/[bugs]20220502_20220508_mean_outliers.xlsx
+++ b/Crawling/music/crawled_data/outlier_data/2022-05-02_2022-05-08/bugs/[bugs]20220502_20220508_mean_outliers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
   <si>
     <t>날짜</t>
   </si>
@@ -46,34 +46,52 @@
     <t>순위변동평균(양수)</t>
   </si>
   <si>
-    <t>2022-05-02</t>
+    <t>2022-05-08</t>
+  </si>
+  <si>
+    <t>2022-05-03</t>
+  </si>
+  <si>
+    <t>2022-05-04</t>
+  </si>
+  <si>
+    <t>2022-05-05</t>
   </si>
   <si>
     <t>bugs</t>
   </si>
   <si>
+    <t>LOVE</t>
+  </si>
+  <si>
+    <t>Light Switch</t>
+  </si>
+  <si>
+    <t>꽃 길</t>
+  </si>
+  <si>
     <t>나의 월요일</t>
   </si>
   <si>
     <t>리무진 (Feat. MINO) (Prod. GRAY)</t>
   </si>
   <si>
-    <t>Light Switch</t>
-  </si>
-  <si>
-    <t>LOVE</t>
-  </si>
-  <si>
-    <t>꽃 길</t>
+    <t>문득</t>
+  </si>
+  <si>
+    <t>사랑해 진짜</t>
   </si>
   <si>
     <t>아버지</t>
   </si>
   <si>
-    <t>사랑해 진짜</t>
-  </si>
-  <si>
-    <t>문득</t>
+    <t>몬스타엑스(Monsta X)</t>
+  </si>
+  <si>
+    <t>Charlie Puth(찰리 푸스)</t>
+  </si>
+  <si>
+    <t>BIGBANG (빅뱅)</t>
   </si>
   <si>
     <t>싸이 (PSY)</t>
@@ -82,46 +100,37 @@
     <t>BE'O (비오)</t>
   </si>
   <si>
-    <t>Charlie Puth(찰리 푸스)</t>
-  </si>
-  <si>
-    <t>몬스타엑스(Monsta X)</t>
-  </si>
-  <si>
-    <t>BIGBANG (빅뱅)</t>
-  </si>
-  <si>
     <t>임영웅</t>
   </si>
   <si>
+    <t>SHAPE of LOVE</t>
+  </si>
+  <si>
     <t>싸다9</t>
   </si>
   <si>
     <t>쇼미더머니 10 Episode 3</t>
   </si>
   <si>
-    <t>SHAPE of LOVE</t>
+    <t>Bipolar</t>
   </si>
   <si>
     <t>IM HERO</t>
   </si>
   <si>
-    <t>Bipolar</t>
+    <t>스타쉽</t>
+  </si>
+  <si>
+    <t>해외</t>
+  </si>
+  <si>
+    <t>YG</t>
   </si>
   <si>
     <t>P NATION</t>
   </si>
   <si>
     <t>스윙</t>
-  </si>
-  <si>
-    <t>해외</t>
-  </si>
-  <si>
-    <t>스타쉽</t>
-  </si>
-  <si>
-    <t>YG</t>
   </si>
   <si>
     <t>물고기뮤직</t>
@@ -528,208 +537,220 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C2">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="J2">
-        <v>34</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3">
         <v>27</v>
       </c>
-      <c r="G3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
       <c r="J3">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="J4">
-        <v>33</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5">
         <v>28</v>
       </c>
-      <c r="G5" t="s">
+      <c r="J5">
         <v>34</v>
-      </c>
-      <c r="H5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C6">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="J6">
-        <v>30.5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7">
         <v>36</v>
       </c>
-      <c r="H7" t="s">
-        <v>37</v>
-      </c>
       <c r="J7">
-        <v>40</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H8" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="I8">
+        <v>44</v>
       </c>
       <c r="J8">
         <v>44</v>
@@ -737,28 +758,34 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H9" t="s">
-        <v>32</v>
+        <v>40</v>
+      </c>
+      <c r="I9">
+        <v>43</v>
       </c>
       <c r="J9">
-        <v>35.5</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
